--- a/data/case1/16/Q_device_4.xlsx
+++ b/data/case1/16/Q_device_4.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.009899808889508567</v>
+        <v>-0.0077319541145460515</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.0092273679002414909</v>
+        <v>-0.0073151622617322852</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.03391948342816551</v>
+        <v>-0.035113097906611136</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.041547117259975917</v>
+        <v>-0.045131186603830108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.013496640787250993</v>
+        <v>-0.013595168236939547</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.027528491057833965</v>
+        <v>-0.025377727842637879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.023313689429559685</v>
+        <v>-0.023474155373074377</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.022425154352843094</v>
+        <v>-0.022879431690503188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.059873017949759848</v>
+        <v>-0.060146151198309898</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.059862754659403515</v>
+        <v>-0.060125882916858303</v>
       </c>
     </row>
   </sheetData>
